--- a/biology/Médecine/1311_en_santé_et_médecine/1311_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1311_en_santé_et_médecine/1311_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1311_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1311_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1311 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1311_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1311_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9 novembre : un édit du roi de France Philippe le Bel, qu'on a pu qualifier de « document le plus important de l'histoire des chirurgiens de Paris[2] », « sanctionne l'importance naissante de la Communauté des chirurgiens, [qu'il place] sous la juridiction des chirurgiens jurés du roi au Châtelet[2] ».
-Fondation à Elbeuf en Normandie, par Guillaume d'Harcourt, seigneur de La Saussaye et d'Elbeuf, d'une maison-Dieu qui, devenue « hôtel-Dieu », puis « hospice général » en 1725 et « hôpital public » en 1799, est à l'origine du centre hospitalier intercommunal Elbeuf-Louviers, ouvert le 1er janvier 1999[3],[4].
-Fondation à Valence, en Espagne, de l'hôpital Sainte-Marie, dit « d'en Clapers », du nom de son fondateur, le riche marchand Bernard Desclapers[5].
-Fondation à Florence, en Italie, de l'hôpital San Jacopo in Campo Corbolini par Lippo Forese del Soldato[6].
-Fondation d'un petit hôpital à Neubrunn en Franconie par les chevaliers teutoniques[7].
-Fondation d'une « maladerie » à Charly, en Brie champenoise[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 novembre : un édit du roi de France Philippe le Bel, qu'on a pu qualifier de « document le plus important de l'histoire des chirurgiens de Paris », « sanctionne l'importance naissante de la Communauté des chirurgiens, [qu'il place] sous la juridiction des chirurgiens jurés du roi au Châtelet ».
+Fondation à Elbeuf en Normandie, par Guillaume d'Harcourt, seigneur de La Saussaye et d'Elbeuf, d'une maison-Dieu qui, devenue « hôtel-Dieu », puis « hospice général » en 1725 et « hôpital public » en 1799, est à l'origine du centre hospitalier intercommunal Elbeuf-Louviers, ouvert le 1er janvier 1999,.
+Fondation à Valence, en Espagne, de l'hôpital Sainte-Marie, dit « d'en Clapers », du nom de son fondateur, le riche marchand Bernard Desclapers.
+Fondation à Florence, en Italie, de l'hôpital San Jacopo in Campo Corbolini par Lippo Forese del Soldato.
+Fondation d'un petit hôpital à Neubrunn en Franconie par les chevaliers teutoniques.
+Fondation d'une « maladerie » à Charly, en Brie champenoise.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1311_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1311_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">7 février : Qotb al-Din Chirazi (né vers 1236), médecin, astronome, mathématicien, philosophe, théologien soufi et poète persan.
-28 mars (avant le) : François André (né à une date inconnue), médecin, licencié en 1275[9], archiatre des fils de Charles II, roi de Naples, otages à Barcelone de 1288 à 1295[10].
-6 septembre : Arnaud de Villeneuve (né entre 1235 et 1240), médecin, alchimiste, théologien et astrologue catalan[11],[12].
+28 mars (avant le) : François André (né à une date inconnue), médecin, licencié en 1275, archiatre des fils de Charles II, roi de Naples, otages à Barcelone de 1288 à 1295.
+6 septembre : Arnaud de Villeneuve (né entre 1235 et 1240), médecin, alchimiste, théologien et astrologue catalan,.
 </t>
         </is>
       </c>
